--- a/StepDown Calculator.xlsx
+++ b/StepDown Calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yla\Documents\Arduino\Books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540A188C-AF6D-416E-8AB2-AC8C38B6DFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41ED976-CABB-4468-B52E-A2C42DDB981D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Yl0oTM2a2W/OrXgVO8/LDWZMbhIx3OpD8e4bwChGorW0uOjuWcKNCSREQh1bNKT1m1cxSa1BItDz5xIBYk8XUA==" workbookSaltValue="3/csJdmFQryqBMST5x4IrQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{24BDADED-487C-416F-B8A8-1FAA2BF5EDC1}"/>

--- a/StepDown Calculator.xlsx
+++ b/StepDown Calculator.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yla\Documents\Arduino\Books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41ED976-CABB-4468-B52E-A2C42DDB981D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA7FDEB-F825-4A32-942F-023D757B9621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Yl0oTM2a2W/OrXgVO8/LDWZMbhIx3OpD8e4bwChGorW0uOjuWcKNCSREQh1bNKT1m1cxSa1BItDz5xIBYk8XUA==" workbookSaltValue="3/csJdmFQryqBMST5x4IrQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{24BDADED-487C-416F-B8A8-1FAA2BF5EDC1}"/>
+    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{24BDADED-487C-416F-B8A8-1FAA2BF5EDC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,8 +86,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -255,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -287,6 +288,10 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -750,12 +755,12 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" ht="30.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -768,11 +773,11 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="1">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="9"/>
@@ -786,12 +791,12 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="3">
         <f>(E3 * E10) / (E9 + E10)</f>
-        <v>7.5</v>
+        <v>13.090909090909092</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="9"/>
@@ -804,14 +809,14 @@
       <c r="B5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="23">
         <f>Vin / _R1</f>
-        <v>0.24</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="23">
         <f>E3 / E9</f>
-        <v>4.4999999999999998E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="9"/>
@@ -826,12 +831,12 @@
       </c>
       <c r="C6" s="3">
         <f>Vout * Aout</f>
-        <v>0.48</v>
+        <v>0.26999999999999996</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="3">
         <f>E4 * E5</f>
-        <v>0.33749999999999997</v>
+        <v>0.31418181818181823</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="9"/>
@@ -869,11 +874,11 @@
         <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="1">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="9"/>
@@ -888,11 +893,11 @@
       </c>
       <c r="C10" s="3">
         <f>_R1 / (Vin / Vout - 1)</f>
-        <v>10</v>
+        <v>5000.0000000000009</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="1">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="9"/>
@@ -962,12 +967,12 @@
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -976,10 +981,10 @@
       <c r="K16" s="10"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="29"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -988,10 +993,10 @@
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="29"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -1000,10 +1005,10 @@
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -1024,12 +1029,12 @@
       <c r="K20" s="15"/>
     </row>
     <row r="21" spans="2:11" ht="30.75" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -1099,12 +1104,12 @@
       <c r="K25" s="10"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -1113,10 +1118,10 @@
       <c r="K26" s="10"/>
     </row>
     <row r="27" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="34"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
@@ -1142,7 +1147,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="H5GzdlTtBlo4gIT68a34GenPgHb/Ig2Su8JLsuliI5a9DiaWaNqjHHkWglChet21qBbu4ZnwbnZNgOtT9D9KRQ==" saltValue="iVJnhLMR17nyl3XdxGSF9Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B21:E21"/>
